--- a/_site/pages/module5/unit-assignments/unit9/examples/Exa 9.1D.xlsx
+++ b/_site/pages/module5/unit-assignments/unit9/examples/Exa 9.1D.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FE4EE2009A02419FF4D1208B1D7CEBC7BC5F3C4D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\essex_eportfolio\pages\module5\unit-assignments\unit9\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153751A-36B7-4A78-B2EF-517296EB0267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4665" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="10">
   <si>
     <t>Area</t>
   </si>
@@ -56,6 +61,9 @@
   <si>
     <t>Percentages</t>
   </si>
+  <si>
+    <t>Area 2</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,10 +141,1969 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Area 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$15:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A6E-444D-894B-7E1C807C6EC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="821151456"/>
+        <c:axId val="1269698640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="821151456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Brand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269698640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269698640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821151456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Area 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$84:$D$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$84:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.571428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-153D-4BA9-9EC1-4B3EE84FA021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1258505792"/>
+        <c:axId val="1436726128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1258505792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Brand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436726128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1436726128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258505792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995FA1B9-0587-85AE-648A-9E8260E02A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69C60ED-27A0-DDF5-448B-F7CAB1BF07F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,9 +2141,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,26 +2176,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +2211,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,11 +2389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -476,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -487,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -496,7 +2431,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -508,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -523,7 +2458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -538,7 +2473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -553,7 +2488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -568,7 +2503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -577,7 +2512,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -586,7 +2521,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -597,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -606,7 +2541,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -618,7 +2553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -633,7 +2568,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -648,7 +2583,7 @@
         <v>24.285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -663,7 +2598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -678,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -686,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -694,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -702,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -710,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -718,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -726,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -734,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -742,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -750,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -758,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -766,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -774,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -782,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -790,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -798,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -806,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -814,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -822,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -830,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -838,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -846,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -854,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -862,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -870,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -878,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -886,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -894,7 +2829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -902,7 +2837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -910,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -918,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -926,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -934,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -942,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -950,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -958,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -966,7 +2901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -974,7 +2909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -982,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -990,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -998,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -1006,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -1014,7 +2949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -1022,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1030,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1038,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1046,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1054,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1062,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1070,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1078,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1086,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1094,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1102,135 +3037,209 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74" s="4"/>
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2">
+        <f>COUNTIF(B72:B161,"A")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <f>COUNTIF(B72:B161,"B")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <f>COUNTIF(B72:B161,"Other")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1">
+        <f>SUM(E75:E77)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83" s="4"/>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="5">
+        <f>100*E75/E$9</f>
+        <v>27.142857142857142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <f>100*E76/E$9</f>
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="5">
+        <f>100*E77/E$9</f>
+        <v>58.571428571428569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1">
+        <f>SUM(E84:E86)</f>
+        <v>128.57142857142856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1238,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -1246,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1254,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1262,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1270,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1278,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
@@ -1286,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1294,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -1302,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1310,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1318,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1326,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1334,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1342,7 +3351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1350,7 +3359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1358,7 +3367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1366,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1374,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
@@ -1382,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
@@ -1390,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1398,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1406,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1414,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1422,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
@@ -1430,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1438,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1446,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1454,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1462,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1470,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1478,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1486,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1494,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1502,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1510,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1518,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1526,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1534,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -1542,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1558,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -1566,7 +3575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -1574,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1582,7 +3591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1590,7 +3599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1598,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1606,7 +3615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1614,7 +3623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1622,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1630,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -1638,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1646,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
@@ -1654,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1662,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1670,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1678,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1686,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1694,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1702,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -1710,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1718,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -1726,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1734,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +3751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1750,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1758,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1766,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
@@ -1774,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1782,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
@@ -1790,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1798,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1806,7 +3815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1814,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
@@ -1827,6 +3836,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1836,7 +3846,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1850,7 +3860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
